--- a/GDCal.xlsx
+++ b/GDCal.xlsx
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="8">
         <v>22</v>
@@ -737,17 +737,17 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C8">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E8">
         <f>SUM(B8:D8)</f>
-        <v>474</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -759,10 +759,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -770,17 +770,17 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C11">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D11">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E11">
         <f>SUM(B11:D11)</f>
-        <v>559</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -791,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -802,21 +802,21 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C14">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="D14">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E14">
         <f>SUM(B14:D14)</f>
-        <v>589</v>
+        <v>550</v>
       </c>
       <c r="F14">
         <f>SUM(E14)*1.15</f>
-        <v>677.34999999999991</v>
+        <v>632.5</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D16">
         <v>22</v>
@@ -838,17 +838,17 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C17">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D17">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E17">
         <f>SUM(B17:D17)</f>
-        <v>518</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
